--- a/modules_schedules/Y3_B2526_CNS_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_CNS_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDFBB3-47CC-475D-92C7-B5E101F160E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC23B3D-107A-48F1-A621-5A0B31A533A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>16/11/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">biochemistry </t>
-  </si>
-  <si>
     <t>histology</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>25/09/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biochemistry Lab/CBL </t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -783,13 +783,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="G13" s="9">
         <v>120</v>
@@ -829,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>16</v>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6">
         <v>4</v>
@@ -861,7 +861,7 @@
         <v>45970</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="9">
         <v>120</v>
@@ -875,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>12</v>
@@ -898,13 +898,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
@@ -921,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -967,13 +967,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4">
         <v>0.41666666666666669</v>
@@ -990,13 +990,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -1036,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>16</v>
@@ -1079,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
@@ -1102,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="9">
         <v>120</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1217,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>9</v>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1252,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="5">
         <v>120</v>
@@ -1263,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1286,19 +1286,19 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="5">
         <v>120</v>
@@ -1309,16 +1309,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>12</v>
@@ -1332,16 +1332,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="4">
         <v>0.58333333333333337</v>
@@ -1355,10 +1355,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="6">
         <v>4</v>
@@ -1378,19 +1378,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="G38" s="5">
         <v>120</v>
@@ -1401,19 +1401,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39" s="9">
         <v>120</v>
@@ -1424,10 +1424,10 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -1447,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>45936</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G41" s="9">
         <v>120</v>
@@ -1470,19 +1470,19 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G42" s="5">
         <v>120</v>
@@ -1493,19 +1493,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="9">
         <v>120</v>
@@ -1516,10 +1516,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
@@ -1528,7 +1528,7 @@
         <v>45965</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G44" s="5">
         <v>120</v>
@@ -1539,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="6">
         <v>4</v>
@@ -1551,7 +1551,7 @@
         <v>45970</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="9">
         <v>120</v>

--- a/modules_schedules/Y3_B2526_CNS_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_CNS_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC23B3D-107A-48F1-A621-5A0B31A533A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149F42B-C20B-4E17-9F81-01C262A0F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7">
         <v>45967</v>
@@ -970,7 +970,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>28</v>
@@ -1039,7 +1039,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7">
         <v>45970</v>

--- a/modules_schedules/Y3_B2526_CNS_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_CNS_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149F42B-C20B-4E17-9F81-01C262A0F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2E7EB3-BA76-44F5-857E-46DF5E031243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,12 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -509,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="7">
-        <v>45968</v>
+        <v>45937</v>
       </c>
       <c r="F33" s="8">
         <v>0.58333333333333337</v>

--- a/modules_schedules/Y3_B2526_CNS_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_CNS_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E4704-8859-4CC8-B42C-88C243C8D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4DD2F-7775-4DE2-9B81-A39952E331FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -49,51 +49,81 @@
     <t>C1</t>
   </si>
   <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>microbiology</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23/11/2025</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>parasitology</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>pathology lab/museum</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>pharmacology</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>20/10/2025</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>16/11/2025</t>
+  </si>
+  <si>
     <t>biochemistry lab/cbl</t>
   </si>
   <si>
     <t>07/10/2025</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>anatomy</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22/09/2025</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>30/09/2025</t>
-  </si>
-  <si>
-    <t>08/10/2025</t>
-  </si>
-  <si>
-    <t>14/10/2025</t>
-  </si>
-  <si>
-    <t>20/10/2025</t>
-  </si>
-  <si>
-    <t>28/10/2025</t>
-  </si>
-  <si>
-    <t>06/11/2025</t>
-  </si>
-  <si>
-    <t>10/11/2025</t>
-  </si>
-  <si>
-    <t>16/11/2025</t>
-  </si>
-  <si>
     <t>histology</t>
   </si>
   <si>
@@ -103,24 +133,21 @@
     <t>19/10/2025</t>
   </si>
   <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
     <t>29/10/2025</t>
   </si>
   <si>
     <t>09/11/2025</t>
   </si>
   <si>
-    <t>pharmacology</t>
-  </si>
-  <si>
     <t>26/10/2025</t>
   </si>
   <si>
     <t>physiology</t>
   </si>
   <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
     <t>13/10/2025</t>
   </si>
   <si>
@@ -130,13 +157,16 @@
     <t>04/11/2025</t>
   </si>
   <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
     <t>25/09/2025</t>
-  </si>
-  <si>
-    <t>06/10/2025</t>
   </si>
 </sst>
 </file>
@@ -525,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -564,232 +594,232 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>120</v>
       </c>
     </row>
@@ -801,16 +831,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5">
         <v>120</v>
@@ -824,16 +854,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G13" s="9">
         <v>120</v>
@@ -847,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14" s="5">
         <v>120</v>
@@ -870,16 +900,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G15" s="9">
         <v>120</v>
@@ -893,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="5">
         <v>120</v>
@@ -916,16 +946,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="9">
         <v>120</v>
@@ -939,16 +969,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.58333333333333337</v>
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="5">
         <v>120</v>
@@ -962,110 +992,110 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G19" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G22" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6">
-        <v>5</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
         <v>120</v>
       </c>
     </row>
@@ -1074,19 +1104,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G24" s="5">
         <v>120</v>
@@ -1097,19 +1127,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G25" s="9">
         <v>120</v>
@@ -1120,22 +1150,22 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.45833333333333331</v>
+        <v>43</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G26" s="5">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1143,22 +1173,22 @@
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.54166666666666663</v>
+        <v>44</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G27" s="9">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1166,19 +1196,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G28" s="5">
         <v>120</v>
@@ -1189,16 +1219,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D29" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F29" s="8">
         <v>0.58333333333333337</v>
@@ -1208,232 +1238,232 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2">
+      <c r="G30" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G31" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G32" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G34" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2">
         <v>6</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G30" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6">
-        <v>7</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="G35" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G31" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="G36" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G32" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G36" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="6">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="G37" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6">
+        <v>9</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="5">
         <v>120</v>
       </c>
     </row>
@@ -1442,19 +1472,19 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45971</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.58333333333333337</v>
       </c>
       <c r="G40" s="5">
         <v>120</v>
@@ -1465,19 +1495,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G41" s="9">
         <v>120</v>
@@ -1488,19 +1518,19 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G42" s="5">
         <v>120</v>
@@ -1511,19 +1541,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.58333333333333337</v>
       </c>
       <c r="G43" s="9">
         <v>120</v>
@@ -1534,19 +1564,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G44" s="5">
         <v>120</v>
@@ -1557,25 +1587,307 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="F48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="6">
         <v>4</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="E55" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="9">
         <v>120</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G57">
+    <sortCondition ref="A2:A57"/>
+    <sortCondition ref="B2:B57"/>
+    <sortCondition ref="C2:C57"/>
+    <sortCondition ref="D2:D57"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/modules_schedules/Y3_B2526_CNS_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_CNS_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4DD2F-7775-4DE2-9B81-A39952E331FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE9C92-FC78-4908-A79C-871FE4F3B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>23/09/2025</t>
   </si>
   <si>
     <t>30/09/2025</t>
@@ -607,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>18</v>
@@ -630,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
@@ -653,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8">
         <v>0.5</v>
@@ -676,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -699,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
@@ -722,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -745,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>12</v>
@@ -768,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
@@ -791,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -831,13 +828,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -854,13 +851,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -877,13 +874,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>16</v>
@@ -900,13 +897,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>12</v>
@@ -923,13 +920,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
@@ -1021,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>18</v>
@@ -1044,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>18</v>
@@ -1067,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8">
         <v>0.58333333333333337</v>
@@ -1107,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4">
         <v>0.41666666666666669</v>
@@ -1130,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
@@ -1153,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -1176,13 +1173,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6">
         <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>18</v>
@@ -1199,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -1222,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="6">
         <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="8">
         <v>0.58333333333333337</v>
@@ -1242,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
@@ -1251,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>12</v>
@@ -1265,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1274,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="4">
         <v>0.45833333333333331</v>
@@ -1288,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>9</v>
@@ -1297,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="8">
         <v>0.54166666666666663</v>
@@ -1311,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1320,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>16</v>
@@ -1334,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>9</v>
@@ -1343,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="8">
         <v>0.58333333333333337</v>
@@ -1357,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1366,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="4">
         <v>0.58333333333333337</v>
@@ -1380,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>9</v>
@@ -1389,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" s="8">
         <v>0.58333333333333337</v>
@@ -1403,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1412,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="4">
         <v>0.58333333333333337</v>
@@ -1426,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>9</v>
@@ -1435,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>16</v>
@@ -1449,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1461,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" s="5">
         <v>120</v>
@@ -1472,16 +1469,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" s="4">
         <v>0.58333333333333337</v>
@@ -1495,16 +1492,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>16</v>
@@ -1518,16 +1515,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>18</v>
@@ -1541,16 +1538,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" s="8">
         <v>0.58333333333333337</v>
@@ -1564,16 +1561,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>18</v>
@@ -1587,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>13</v>
@@ -1610,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
@@ -1633,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>19</v>
@@ -1656,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>21</v>
@@ -1665,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>16</v>
@@ -1679,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>21</v>
@@ -1688,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>16</v>
@@ -1702,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>21</v>
@@ -1711,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>12</v>
@@ -1725,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>21</v>
@@ -1748,16 +1745,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>16</v>
@@ -1771,16 +1768,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>16</v>
@@ -1794,16 +1791,16 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>16</v>
@@ -1817,16 +1814,16 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="6">
         <v>4</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>16</v>
@@ -1840,16 +1837,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>16</v>
@@ -1863,16 +1860,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="8">
         <v>0.5</v>

--- a/modules_schedules/Y3_B2526_CNS_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_CNS_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE9C92-FC78-4908-A79C-871FE4F3B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E4C2F1-D7E7-4B26-B1F4-8CA4E45B3084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>14:00:00</t>
-  </si>
-  <si>
-    <t>25/09/2025</t>
   </si>
 </sst>
 </file>
@@ -603,8 +600,8 @@
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
+      <c r="E2" s="7">
+        <v>45923</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>18</v>
@@ -1248,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>12</v>
